--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/26.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/26.xlsx
@@ -479,13 +479,13 @@
         <v>-0.4557708852240928</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.948671939196416</v>
+        <v>-1.932279979279784</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1330244774987064</v>
+        <v>0.1266791084956172</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1487180825077634</v>
+        <v>-0.143702817315492</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.4798953671947034</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.092291759730787</v>
+        <v>-2.071721142177974</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06934301996563261</v>
+        <v>0.06584766483599719</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1211728152246799</v>
+        <v>-0.1173737700921354</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.5379322935579912</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.304790809001866</v>
+        <v>-2.282907608215327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05655007859309059</v>
+        <v>0.05276271384527343</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1444299212647645</v>
+        <v>-0.1407798010374928</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.6244988467833176</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.474544030315411</v>
+        <v>-2.452646959072009</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001722352683287134</v>
+        <v>-0.000567002723257706</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1697588355458486</v>
+        <v>-0.1657466233920315</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.7235246384008972</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.546380586460256</v>
+        <v>-2.520087310415127</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07409210448523797</v>
+        <v>-0.07041132324805713</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1722379972042116</v>
+        <v>-0.1701428281937576</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.8135683471936741</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.344827517726719</v>
+        <v>-2.318175799875272</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1276583488444963</v>
+        <v>-0.1198470915581348</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1480610608668545</v>
+        <v>-0.1461834390219459</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.8756950306556647</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.037631209327393</v>
+        <v>-2.008563841909537</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1787600320263008</v>
+        <v>-0.1659700107499406</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1162159519560448</v>
+        <v>-0.1163911577269539</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.8987176197685164</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.684482807362896</v>
+        <v>-1.655468731700359</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.108585740632956</v>
+        <v>-0.09375165202932359</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07328323784287455</v>
+        <v>-0.07453157896060149</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.8767626368156809</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.253368567367921</v>
+        <v>-1.22396319881702</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007829733847558222</v>
+        <v>0.01632283359237412</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01038290603843689</v>
+        <v>-0.0117772519652547</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.80472687272149</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9418848277496413</v>
+        <v>-0.9116151107289222</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07476125843099479</v>
+        <v>0.07915308308844816</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01588290719688996</v>
+        <v>-0.0172670327870714</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.6800290277137685</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5791986616312842</v>
+        <v>-0.5455299526549295</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1477695031687934</v>
+        <v>0.1486207112057931</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02291011865843352</v>
+        <v>-0.02062952354043414</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.5027519042608269</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1374961528810391</v>
+        <v>-0.1001612631484128</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01167842061519355</v>
+        <v>0.0124916674018297</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04589756772182073</v>
+        <v>0.04750800076609302</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2802549336364631</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3148574066923849</v>
+        <v>0.3529135601819201</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1617825928252144</v>
+        <v>-0.1611839731079419</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1127998913434391</v>
+        <v>0.1173464810985288</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.02993782679481027</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8596130297951476</v>
+        <v>0.8956061353322289</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1774576691292102</v>
+        <v>-0.1860661126732079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1943450372687809</v>
+        <v>0.1990887335161432</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2269508509689605</v>
       </c>
       <c r="E16" t="n">
-        <v>1.561360323872868</v>
+        <v>1.590930677858042</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5110202559782115</v>
+        <v>-0.5235941901371173</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2596004266438542</v>
+        <v>0.2635659172587623</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4736119908158967</v>
       </c>
       <c r="E17" t="n">
-        <v>2.268718582763951</v>
+        <v>2.290447018452854</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6773284938212578</v>
+        <v>-0.6888365928738002</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3692836193771885</v>
+        <v>0.3739455529314599</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7142379094253218</v>
       </c>
       <c r="E18" t="n">
-        <v>3.034510886349382</v>
+        <v>3.049587342936105</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9560385339429103</v>
+        <v>-0.9651112727798169</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4797245770697042</v>
+        <v>0.4862130307857025</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9581430411694111</v>
       </c>
       <c r="E19" t="n">
-        <v>3.665358245132576</v>
+        <v>3.675755247587937</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.196289447301937</v>
+        <v>-1.203754673190753</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5999274162980356</v>
+        <v>0.6042272579257617</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.207635775194165</v>
       </c>
       <c r="E20" t="n">
-        <v>4.330588276408579</v>
+        <v>4.329772109525761</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.456842329365049</v>
+        <v>-1.462695662161501</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7110210154871875</v>
+        <v>0.7173970455001859</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.454855221824897</v>
       </c>
       <c r="E21" t="n">
-        <v>4.856339913560075</v>
+        <v>4.851067679903803</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.731032060597248</v>
+        <v>-1.734203285050701</v>
       </c>
       <c r="G21" t="n">
-        <v>0.859224657002966</v>
+        <v>0.8638924307496011</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.684054850757419</v>
       </c>
       <c r="E22" t="n">
-        <v>5.378388868753025</v>
+        <v>5.361129640270393</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.951059117825052</v>
+        <v>-1.952214015864961</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9459880148052154</v>
+        <v>0.9501111906139416</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.885960193938403</v>
       </c>
       <c r="E23" t="n">
-        <v>5.727444025894659</v>
+        <v>5.706223686941391</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.201513577267394</v>
+        <v>-2.198711014956895</v>
       </c>
       <c r="G23" t="n">
-        <v>1.055155810562459</v>
+        <v>1.059804603683912</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.051255477495605</v>
       </c>
       <c r="E24" t="n">
-        <v>6.153709446179726</v>
+        <v>6.123721518440552</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.432807825612741</v>
+        <v>-2.426046342903743</v>
       </c>
       <c r="G24" t="n">
-        <v>1.176453685858972</v>
+        <v>1.17903797097988</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.176160930072099</v>
       </c>
       <c r="E25" t="n">
-        <v>6.446887102834193</v>
+        <v>6.405706446430113</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556465868648208</v>
+        <v>-2.550064287793619</v>
       </c>
       <c r="G25" t="n">
-        <v>1.250437242721497</v>
+        <v>1.252380566730497</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.258650453826542</v>
       </c>
       <c r="E26" t="n">
-        <v>6.614824754346693</v>
+        <v>6.565291162814525</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.604996407141922</v>
+        <v>-2.600587791931423</v>
       </c>
       <c r="G26" t="n">
-        <v>1.314902746079389</v>
+        <v>1.315768554597298</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.298539649473815</v>
       </c>
       <c r="E27" t="n">
-        <v>6.72070452180321</v>
+        <v>6.667544170813224</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.690507043682172</v>
+        <v>-2.679631875477039</v>
       </c>
       <c r="G27" t="n">
-        <v>1.325339169833204</v>
+        <v>1.328183343514295</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.300014063365779</v>
       </c>
       <c r="E28" t="n">
-        <v>6.906837292624615</v>
+        <v>6.84678551464554</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.71649370962821</v>
+        <v>-2.70829042942944</v>
       </c>
       <c r="G28" t="n">
-        <v>1.365618976565194</v>
+        <v>1.367712685527557</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.266066113281163</v>
       </c>
       <c r="E29" t="n">
-        <v>6.871831179596988</v>
+        <v>6.80989447953255</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738651399455841</v>
+        <v>-2.72766818769198</v>
       </c>
       <c r="G29" t="n">
-        <v>1.351665296960379</v>
+        <v>1.352282897302834</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.201237300634225</v>
       </c>
       <c r="E30" t="n">
-        <v>6.808066499322732</v>
+        <v>6.74565674367684</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.64001201048214</v>
+        <v>-2.634676994757959</v>
       </c>
       <c r="G30" t="n">
-        <v>1.334960886752293</v>
+        <v>1.335080610695747</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.111265750377811</v>
       </c>
       <c r="E31" t="n">
-        <v>6.83423640130418</v>
+        <v>6.765960172429017</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.539947614571712</v>
+        <v>-2.536646445838167</v>
       </c>
       <c r="G31" t="n">
-        <v>1.296897433022303</v>
+        <v>1.296398096575212</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.000313482246311</v>
       </c>
       <c r="E32" t="n">
-        <v>6.795039950255645</v>
+        <v>6.723049359037209</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.405456014701703</v>
+        <v>-2.405992582375112</v>
       </c>
       <c r="G32" t="n">
-        <v>1.251322031864588</v>
+        <v>1.249047276938952</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.877354860926715</v>
       </c>
       <c r="E33" t="n">
-        <v>6.629669063286962</v>
+        <v>6.553704221165074</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.371315710191985</v>
+        <v>-2.370741181268212</v>
       </c>
       <c r="G33" t="n">
-        <v>1.19306465298924</v>
+        <v>1.190915462199422</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.747364470619813</v>
       </c>
       <c r="E34" t="n">
-        <v>6.32942915401677</v>
+        <v>6.260968959082152</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.333233275836813</v>
+        <v>-2.336764402144676</v>
       </c>
       <c r="G34" t="n">
-        <v>1.143373376263253</v>
+        <v>1.141587737448072</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.618514007695683</v>
       </c>
       <c r="E35" t="n">
-        <v>6.133911194067005</v>
+        <v>6.068036744301385</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.296695572361823</v>
+        <v>-2.297134316813141</v>
       </c>
       <c r="G35" t="n">
-        <v>1.083108431262906</v>
+        <v>1.083331818620815</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.496905149098345</v>
       </c>
       <c r="E36" t="n">
-        <v>5.936950706603421</v>
+        <v>5.871114218088166</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.231944629602158</v>
+        <v>-2.23724095405193</v>
       </c>
       <c r="G36" t="n">
-        <v>1.06227500505373</v>
+        <v>1.059823584309094</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.385681856427632</v>
       </c>
       <c r="E37" t="n">
-        <v>5.630182922318776</v>
+        <v>5.567765866432429</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.188331533078625</v>
+        <v>-2.191292510606988</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9564901407231217</v>
+        <v>0.9557352958601218</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.289433464092045</v>
       </c>
       <c r="E38" t="n">
-        <v>5.323609324430222</v>
+        <v>5.263315178468056</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.141731178161092</v>
+        <v>-2.145227993338818</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8826613489582325</v>
+        <v>0.8833709323304141</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.206243338633737</v>
       </c>
       <c r="E39" t="n">
-        <v>5.00926389055376</v>
+        <v>4.946645348030868</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.082999283656199</v>
+        <v>-2.087897014977152</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8015410770273451</v>
+        <v>0.8032507933417992</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.135305732357499</v>
       </c>
       <c r="E40" t="n">
-        <v>4.717743388482475</v>
+        <v>4.658050782333764</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.10371955613833</v>
+        <v>-2.107214181243919</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7616934445302649</v>
+        <v>0.7624409891528101</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.073755652920597</v>
       </c>
       <c r="E41" t="n">
-        <v>4.396029091891198</v>
+        <v>4.338233088212577</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.998544991909721</v>
+        <v>-2.000870848518539</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6819353974681954</v>
+        <v>0.6828829686791952</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.017574923954088</v>
       </c>
       <c r="E42" t="n">
-        <v>4.0161012178673</v>
+        <v>3.965141159350314</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908021280249336</v>
+        <v>-1.909237500309063</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6029599361828529</v>
+        <v>0.6030197981545802</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9655999042434922</v>
       </c>
       <c r="E43" t="n">
-        <v>3.713494570641745</v>
+        <v>3.666710249664757</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.855486559866305</v>
+        <v>-1.856864845264123</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5627472916630456</v>
+        <v>0.5641343373494089</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9136416682777544</v>
       </c>
       <c r="E44" t="n">
-        <v>3.410255722592826</v>
+        <v>3.368063252861747</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.760447649484785</v>
+        <v>-1.763033394653784</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5141933923998768</v>
+        <v>0.5144445206715131</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8606119390722583</v>
       </c>
       <c r="E45" t="n">
-        <v>3.127561211231084</v>
+        <v>3.085576068328914</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.677789946914171</v>
+        <v>-1.680657481364716</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4187106273987206</v>
+        <v>0.4213576945875381</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8050004568347229</v>
       </c>
       <c r="E46" t="n">
-        <v>2.831716046714527</v>
+        <v>2.793105074950446</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.599833599196283</v>
+        <v>-1.601794443782373</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3807303964099126</v>
+        <v>0.3843177345692753</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7466420947534735</v>
       </c>
       <c r="E47" t="n">
-        <v>2.500728984697889</v>
+        <v>2.465008908153807</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.477694736199407</v>
+        <v>-1.481397418157951</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3170036773860206</v>
+        <v>0.3203296669371107</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6872132054776422</v>
       </c>
       <c r="E48" t="n">
-        <v>2.206016817499877</v>
+        <v>2.175221483166431</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.372803421300435</v>
+        <v>-1.377945710676615</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2891605602923918</v>
+        <v>0.2903183784284823</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6274895959709418</v>
       </c>
       <c r="E49" t="n">
-        <v>1.924094671578225</v>
+        <v>1.896743590691233</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.285612269407549</v>
+        <v>-1.292997192651365</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2348613717914973</v>
+        <v>0.2374208360948602</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5696600955219178</v>
       </c>
       <c r="E50" t="n">
-        <v>1.789939612793171</v>
+        <v>1.761286169009087</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.163068973089491</v>
+        <v>-1.171995707117307</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1968081383981438</v>
+        <v>0.1983032276432344</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5139917067435698</v>
       </c>
       <c r="E51" t="n">
-        <v>1.512885267206609</v>
+        <v>1.490799119735433</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.08719611399733</v>
+        <v>-1.096921494330872</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1662697725286975</v>
+        <v>0.1663675957507884</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4618480009873981</v>
       </c>
       <c r="E52" t="n">
-        <v>1.352506284660743</v>
+        <v>1.33489226449202</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.004133978105534</v>
+        <v>-1.014687205706622</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1436083661097036</v>
+        <v>0.1436404871677036</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4143729663303273</v>
       </c>
       <c r="E53" t="n">
-        <v>1.108415444822626</v>
+        <v>1.094165375455358</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9301956827338262</v>
+        <v>-0.9427958977583684</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1001281339624425</v>
+        <v>0.1004902258889879</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3714393133712432</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9625478802523019</v>
+        <v>0.9502192341726688</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9376886495363697</v>
+        <v>-0.9513649200039115</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04940606328427433</v>
+        <v>0.04934766136063798</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3337391761092844</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8011103628405271</v>
+        <v>0.7895949635475301</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8918226988085638</v>
+        <v>-0.9019627327999248</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0214052609968273</v>
+        <v>0.02249445687264519</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2999292569307591</v>
       </c>
       <c r="E56" t="n">
-        <v>0.653557902773294</v>
+        <v>0.64481075466066</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.84163792582785</v>
+        <v>-0.8543345040263921</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01518837622573806</v>
+        <v>0.01573881435601064</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2700180047357541</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5096322021638781</v>
+        <v>0.5019377487247891</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.808760562916768</v>
+        <v>-0.822017799582219</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01311173592034525</v>
+        <v>-0.01097714561143673</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2430288482816494</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3989736973058168</v>
+        <v>0.3926137278218185</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8035992929154057</v>
+        <v>-0.815492844663948</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02823783414215937</v>
+        <v>-0.02752533067379592</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.217724035768111</v>
       </c>
       <c r="E59" t="n">
-        <v>0.253128033456856</v>
+        <v>0.2459986186289488</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7390228259026048</v>
+        <v>-0.7505075641856926</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09428310953441436</v>
+        <v>-0.09091331854059709</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1935665374417483</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1926221805215086</v>
+        <v>0.1859497607460558</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7217957184779731</v>
+        <v>-0.7345696792253333</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08151060883514506</v>
+        <v>-0.07866643515405491</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1695190756001525</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03423762366782386</v>
+        <v>0.0286047581330981</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6943336739360714</v>
+        <v>-0.707117855020068</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1380144699533117</v>
+        <v>-0.1358579789230396</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1455487921207101</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05267903918397099</v>
+        <v>-0.05963908843333275</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7128237229593392</v>
+        <v>-0.7257831098142448</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1697471551611214</v>
+        <v>-0.168617077938758</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1212124977371732</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1467075962865821</v>
+        <v>-0.1525185876883987</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7468501437179664</v>
+        <v>-0.759059065854145</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1852076043957536</v>
+        <v>-0.1830832344234814</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.09673720200167245</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2591721806330974</v>
+        <v>-0.2663483169999136</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7495935740807839</v>
+        <v>-0.7628011691111439</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.218191550817472</v>
+        <v>-0.2174980279742904</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.07230901794075811</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4122100413778744</v>
+        <v>-0.4206140781891449</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7303443000502435</v>
+        <v>-0.745257231250785</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.238724207119921</v>
+        <v>-0.2375269676853759</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.04785791351319026</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4359095419895044</v>
+        <v>-0.4469256048354106</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7608563850540535</v>
+        <v>-0.7767898898701402</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2537554022158261</v>
+        <v>-0.254139394863735</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.02252493715632619</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5228816866687538</v>
+        <v>-0.5328479749372966</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8015742062133153</v>
+        <v>-0.8167514061183113</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2685880307713676</v>
+        <v>-0.2687982776964584</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.00469288862754039</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5553327155372906</v>
+        <v>-0.567975271956469</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7483306324821478</v>
+        <v>-0.7691698988836877</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3209351349747172</v>
+        <v>-0.3183669103828087</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.03531279661364688</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6365391303055414</v>
+        <v>-0.6477990211826293</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7948098034081353</v>
+        <v>-0.8144313897018574</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3185012348071724</v>
+        <v>-0.3183596101423542</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.06977783516994808</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7464953520318756</v>
+        <v>-0.7556148124076913</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7903157753843184</v>
+        <v>-0.8121011529487671</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3589387267329797</v>
+        <v>-0.3568873591652529</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1078749981657686</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7745107548002317</v>
+        <v>-0.7848157742258653</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9203593387453743</v>
+        <v>-0.9391428574349148</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4042279584648766</v>
+        <v>-0.4008056057397866</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1476427130306526</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8166565029924022</v>
+        <v>-0.8283325075753991</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9869360716427201</v>
+        <v>-1.005039207921897</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.421428785023872</v>
+        <v>-0.419269373897418</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1873312423797842</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8691671325819336</v>
+        <v>-0.8774295447283859</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.022054608373347</v>
+        <v>-1.037569079387343</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4549179080850448</v>
+        <v>-0.4525905914281363</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2249017035782831</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8119347074664035</v>
+        <v>-0.8197226039833104</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.046865205582159</v>
+        <v>-1.063519974155154</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.46946728731095</v>
+        <v>-0.4670932491151324</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2587466800780412</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7965092993859531</v>
+        <v>-0.8028678088218605</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.113558742326777</v>
+        <v>-1.125739923549228</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4580263504705894</v>
+        <v>-0.4557092541503173</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2878153593864097</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7135187058506117</v>
+        <v>-0.7188157603244285</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.157189359427402</v>
+        <v>-1.165536454363127</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4605901949182251</v>
+        <v>-0.457808803305044</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3105486260697206</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5613305930947435</v>
+        <v>-0.569845593560923</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.140714176769588</v>
+        <v>-1.150451237487858</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4412927393006848</v>
+        <v>-0.4375769169093222</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3255265108268914</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4217908769504173</v>
+        <v>-0.432878482152778</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.165958408261399</v>
+        <v>-1.173214847273216</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4546390388996812</v>
+        <v>-0.4500603280865916</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3312245233535969</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3186151185582632</v>
+        <v>-0.3320709217640778</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.248817597468559</v>
+        <v>-1.254599387908557</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3977278243641511</v>
+        <v>-0.3948296289036973</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3265282253367446</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1298425807884957</v>
+        <v>-0.1429961540394922</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.306820927976089</v>
+        <v>-1.310076835218815</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3754796115548843</v>
+        <v>-0.3719842564252489</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3104545851250982</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02946764655482514</v>
+        <v>0.01342755822810217</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.300519360415727</v>
+        <v>-1.299650631801636</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3242552843334435</v>
+        <v>-0.3234770787009892</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2833539220401364</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2418316413774954</v>
+        <v>0.2249301246771363</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289471176511821</v>
+        <v>-1.287272344086912</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2883016000948168</v>
+        <v>-0.2880533919193624</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2458780388151716</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4242135486533555</v>
+        <v>0.4066287294464511</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.2306633595062</v>
+        <v>-1.22870251492011</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2704846332414579</v>
+        <v>-0.2699838367462763</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2002706684201674</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6299635256242093</v>
+        <v>0.6158696814026676</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.152493844767039</v>
+        <v>-1.151854343703221</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2458623822363737</v>
+        <v>-0.2458828229096464</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1488822349285538</v>
       </c>
       <c r="E85" t="n">
-        <v>0.743076371323088</v>
+        <v>0.7299680595629098</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.063530194491791</v>
+        <v>-1.06410837353579</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2098663566031106</v>
+        <v>-0.2105730198791104</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.09579843952107141</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9692538811338455</v>
+        <v>0.9555396494159401</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9979711151138081</v>
+        <v>-0.9983200666075353</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1811793317129365</v>
+        <v>-0.1810012058458456</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.04520630550936492</v>
       </c>
       <c r="E87" t="n">
-        <v>1.112318153369625</v>
+        <v>1.099123698772083</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9426878541996411</v>
+        <v>-0.9418819076534595</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1514994741209444</v>
+        <v>-0.1510191182990355</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.002346830870576177</v>
       </c>
       <c r="E88" t="n">
-        <v>1.213886398813689</v>
+        <v>1.201827861630874</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8886091329604738</v>
+        <v>-0.8844757368151113</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1151866180519542</v>
+        <v>-0.1149909716077724</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02861561858830928</v>
       </c>
       <c r="E89" t="n">
-        <v>1.335975620175474</v>
+        <v>1.32547641435375</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7939775759963174</v>
+        <v>-0.7868905025630466</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1135367637092274</v>
+        <v>-0.1132622746681365</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04512571971554973</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371964345568283</v>
+        <v>1.364347274678012</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6939642817690715</v>
+        <v>-0.6867998257869825</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07874965789523672</v>
+        <v>-0.07951764319105468</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04546536153938579</v>
       </c>
       <c r="E91" t="n">
-        <v>1.41579206916118</v>
+        <v>1.410524215649182</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5891459692746451</v>
+        <v>-0.5808251552045565</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01649174725079889</v>
+        <v>-0.01911691371825272</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.03121492307221121</v>
       </c>
       <c r="E92" t="n">
-        <v>1.439243361597356</v>
+        <v>1.434201815539448</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4620108217106793</v>
+        <v>-0.4525584703701364</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0205068795007978</v>
+        <v>-0.02155519403007025</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.004817122782465552</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409804411940364</v>
+        <v>1.406560185082364</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3537132146156174</v>
+        <v>-0.344844882511438</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01404616669852681</v>
+        <v>-0.01439365814416308</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02958274395342771</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410626419015545</v>
+        <v>1.406027267529183</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2140669149606549</v>
+        <v>-0.2040276242875667</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01630194099898075</v>
+        <v>-0.01836936909570747</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.06844575893063312</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335673390220656</v>
+        <v>1.332842356972384</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09789526851132248</v>
+        <v>-0.08964015660532469</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01885410506188916</v>
+        <v>-0.01965567146379803</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1089141764243379</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257855747071404</v>
+        <v>1.254023120832769</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02993340189582501</v>
+        <v>0.03582615599073252</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03378309679143061</v>
+        <v>-0.03418314996833959</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1480872188372669</v>
       </c>
       <c r="E97" t="n">
-        <v>1.17482865233379</v>
+        <v>1.173260560684154</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1318009571985249</v>
+        <v>0.1332624653375245</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05240309009478924</v>
+        <v>-0.05252865423060739</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1860905951432096</v>
       </c>
       <c r="E98" t="n">
-        <v>1.075935214992271</v>
+        <v>1.077623030585362</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1930353741312358</v>
+        <v>0.1942355336619627</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05777606706933325</v>
+        <v>-0.05814399918824224</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2217597986850807</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9382745807409447</v>
+        <v>0.9414399650020348</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1947786715517807</v>
+        <v>0.1951407634783261</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05077075632915332</v>
+        <v>-0.0539244602055161</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2577253417610715</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8433334935815157</v>
+        <v>0.8481969137723325</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2117444303681398</v>
+        <v>0.2111122295447764</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04489990295560944</v>
+        <v>-0.04660377907769989</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2913878676066602</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6891378147006481</v>
+        <v>0.6981711322391001</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1977776103305072</v>
+        <v>0.1976841672526891</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04933114891151734</v>
+        <v>-0.0493413692481537</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3258192966882634</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6301533318760275</v>
+        <v>0.6378667659402981</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2074372884999592</v>
+        <v>0.2067510658972321</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08141862580541781</v>
+        <v>-0.08096893099341794</v>
       </c>
     </row>
   </sheetData>
